--- a/travis/dssat_weather/config_1_weather_importer.xlsx
+++ b/travis/dssat_weather/config_1_weather_importer.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ztz\github_projects\sharda_python_practice\travis\dssat_weather\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E981261-1275-4651-B21D-F19A4E8DED76}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D2CE565-3A77-41E8-BA95-F00231B0785D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{82A72517-AA17-40E6-BEC4-01AC68791A74}"/>
+    <workbookView xWindow="2568" yWindow="1686" windowWidth="17280" windowHeight="9000" xr2:uid="{82A72517-AA17-40E6-BEC4-01AC68791A74}"/>
   </bookViews>
   <sheets>
     <sheet name="config_1" sheetId="1" r:id="rId1"/>
@@ -179,7 +179,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -229,6 +229,11 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial Unicode MS"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -265,7 +270,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -286,6 +291,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -604,10 +612,10 @@
   <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.15625" defaultRowHeight="14.7" x14ac:dyDescent="0.65"/>
+  <sheetFormatPr defaultColWidth="9.15625" defaultRowHeight="14.7"/>
   <cols>
     <col min="1" max="1" width="45.68359375" style="2" customWidth="1"/>
     <col min="2" max="2" width="17.47265625" style="2" bestFit="1" customWidth="1"/>
@@ -615,17 +623,17 @@
     <col min="4" max="16384" width="9.15625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:3" ht="17.399999999999999">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.65">
+    <row r="2" spans="1:3">
       <c r="A2" s="2" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.65">
+    <row r="4" spans="1:3">
       <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
@@ -636,7 +644,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="29.4" x14ac:dyDescent="0.65">
+    <row r="5" spans="1:3" ht="29.4">
       <c r="A5" s="4" t="s">
         <v>43</v>
       </c>
@@ -647,7 +655,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.65">
+    <row r="6" spans="1:3">
       <c r="A6" s="4" t="s">
         <v>8</v>
       </c>
@@ -658,7 +666,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.65">
+    <row r="7" spans="1:3">
       <c r="A7" s="4" t="s">
         <v>45</v>
       </c>
@@ -667,29 +675,29 @@
       </c>
       <c r="C7" s="5"/>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.65">
+    <row r="8" spans="1:3">
       <c r="A8" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="11">
+      <c r="B8" s="13">
         <v>38.508769999999998</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.65">
+    <row r="9" spans="1:3">
       <c r="A9" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="11">
-        <v>-100.61463999999999</v>
+      <c r="B9" s="13">
+        <v>-100.61469</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.65">
+    <row r="10" spans="1:3">
       <c r="A10" s="6" t="s">
         <v>11</v>
       </c>
@@ -700,7 +708,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.65">
+    <row r="11" spans="1:3">
       <c r="A11" s="6" t="s">
         <v>12</v>
       </c>
@@ -711,7 +719,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.65">
+    <row r="12" spans="1:3">
       <c r="A12" s="6" t="s">
         <v>42</v>
       </c>
@@ -722,7 +730,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="15" x14ac:dyDescent="0.65">
+    <row r="13" spans="1:3" ht="15">
       <c r="A13" s="6"/>
       <c r="B13"/>
     </row>
@@ -740,25 +748,25 @@
       <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="18.68359375" customWidth="1"/>
     <col min="2" max="2" width="52.26171875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="43.578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="20.399999999999999" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:3" ht="20.399999999999999">
       <c r="A1" s="7" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="3" spans="1:3" ht="18.3" x14ac:dyDescent="0.7">
+    <row r="2" spans="1:3" s="10" customFormat="1"/>
+    <row r="3" spans="1:3" ht="18.3">
       <c r="A3" s="9" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:3">
       <c r="A4" s="8" t="s">
         <v>16</v>
       </c>
@@ -769,7 +777,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="14.7" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:3" ht="14.7">
       <c r="A5" t="s">
         <v>1</v>
       </c>
@@ -780,15 +788,15 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="14.7" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:3" ht="14.7">
       <c r="B6" s="5"/>
     </row>
-    <row r="7" spans="1:3" ht="18.3" x14ac:dyDescent="0.7">
+    <row r="7" spans="1:3" ht="18.3">
       <c r="A7" s="9" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:3">
       <c r="A8" s="8" t="s">
         <v>20</v>
       </c>
@@ -799,7 +807,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:3">
       <c r="A9" t="s">
         <v>25</v>
       </c>
@@ -810,7 +818,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:3">
       <c r="A10" t="s">
         <v>27</v>
       </c>
@@ -821,7 +829,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:3">
       <c r="A11" t="s">
         <v>23</v>
       </c>
@@ -832,7 +840,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:3">
       <c r="A12" t="s">
         <v>30</v>
       </c>
@@ -843,7 +851,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:3">
       <c r="A13" t="s">
         <v>32</v>
       </c>
@@ -854,7 +862,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:3">
       <c r="A14" t="s">
         <v>34</v>
       </c>
@@ -872,6 +880,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010018AE6C08CDEAF147807D8CF317F0ADB5" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="875670a9d9aa141891be2e1645ac373c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="f623e1fa-06c0-442c-bf13-6b417fbd2da3" xmlns:ns4="0b9de3d3-35f4-4d75-b390-47a360cdbec9" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4f9aaa6550877dff232b92046ce4319a" ns3:_="" ns4:_="">
     <xsd:import namespace="f623e1fa-06c0-442c-bf13-6b417fbd2da3"/>
@@ -1094,7 +1108,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -1103,13 +1117,24 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A174D336-94B7-4ECB-97E3-C87513CDE339}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="0b9de3d3-35f4-4d75-b390-47a360cdbec9"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="f623e1fa-06c0-442c-bf13-6b417fbd2da3"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6350E099-E81F-4BA9-959E-DF0B4E03A4CE}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1128,27 +1153,10 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{18EE1BDF-624F-4413-84BE-165990F9E7E3}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A174D336-94B7-4ECB-97E3-C87513CDE339}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="0b9de3d3-35f4-4d75-b390-47a360cdbec9"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="f623e1fa-06c0-442c-bf13-6b417fbd2da3"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>